--- a/Phân tích/Yêu cầu tương thích.xlsx
+++ b/Phân tích/Yêu cầu tương thích.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E51B2-C4B2-4887-BD09-C6D9936433B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914A3B2-1A63-41B5-B986-A711FBB5A999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{31180FFF-09CF-48F2-8B6B-9E3B3847F41D}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{31180FFF-09CF-48F2-8B6B-9E3B3847F41D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Yêu cầu nghiệp vụ</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>- Cập nhật thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Chấm công</t>
   </si>
   <si>
     <t>- Tính lương</t>
@@ -194,14 +191,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F5D3CF-0B34-4169-9AE1-207D50D4E913}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,12 +529,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -547,10 +544,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,8 +557,8 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -570,8 +567,8 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -580,8 +577,8 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -590,8 +587,8 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -600,28 +597,28 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -630,8 +627,8 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -640,28 +637,28 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -670,8 +667,8 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -680,8 +677,8 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -690,8 +687,8 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -700,8 +697,8 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -710,8 +707,8 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -720,8 +717,8 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -730,8 +727,8 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -740,8 +737,8 @@
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -750,8 +747,8 @@
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -760,8 +757,8 @@
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -770,8 +767,8 @@
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -780,8 +777,8 @@
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -790,8 +787,8 @@
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -800,8 +797,8 @@
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -810,8 +807,8 @@
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -820,8 +817,8 @@
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -830,8 +827,8 @@
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -840,8 +837,8 @@
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -850,8 +847,8 @@
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -860,8 +857,8 @@
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -870,38 +867,32 @@
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Phân tích/Yêu cầu tương thích.xlsx
+++ b/Phân tích/Yêu cầu tương thích.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914A3B2-1A63-41B5-B986-A711FBB5A999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6B5A0-BD8D-4D29-9510-36587540A07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{31180FFF-09CF-48F2-8B6B-9E3B3847F41D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31180FFF-09CF-48F2-8B6B-9E3B3847F41D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
-  <si>
-    <t>Yêu cầu nghiệp vụ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -36,109 +33,46 @@
     <t xml:space="preserve">Tên yêu cầu </t>
   </si>
   <si>
-    <t>- Thêm nhân viên</t>
-  </si>
-  <si>
-    <t>- Xem thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Tính lương</t>
-  </si>
-  <si>
-    <t>- Danh mục nhân viên</t>
-  </si>
-  <si>
-    <t>- Danh mục  khách hàng</t>
-  </si>
-  <si>
-    <t>- Danh mục  kho</t>
-  </si>
-  <si>
-    <t>- Danh mục  hóa đơn</t>
-  </si>
-  <si>
-    <t>- Báo cáo doanh thu</t>
-  </si>
-  <si>
-    <t>- Báo cáo khách hàng</t>
-  </si>
-  <si>
-    <t>- Báo cáo sản phẩm</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm sản phẩm</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm khách hàng</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm đơn hàng</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm nhân viên</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm hóa đơn</t>
-  </si>
-  <si>
-    <t>- Thêm hàng hóa</t>
-  </si>
-  <si>
-    <t>- Xem thông tin hàng hóa</t>
-  </si>
-  <si>
-    <t>- Cập nhật chi tiết hàng hóa</t>
-  </si>
-  <si>
-    <t>- Tạo đơn hàng</t>
-  </si>
-  <si>
-    <t>- Xuất hóa đơn</t>
-  </si>
-  <si>
-    <t>- Cập nhật đơn hàng</t>
-  </si>
-  <si>
-    <t>- Xem thông tin đơn hàng</t>
-  </si>
-  <si>
-    <t>- Tạo hóa đơn</t>
-  </si>
-  <si>
-    <t>- Xem thông tin hóa đơn</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin hóa đơn</t>
-  </si>
-  <si>
-    <t>- Tạo hồ sơ khách hàng</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>- Đăng nhập</t>
-  </si>
-  <si>
-    <t>- Thay đổi thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>- Đặt lịch làm việc</t>
-  </si>
-  <si>
-    <t>-Check in/out</t>
-  </si>
-  <si>
     <t>Đối tượng liên quan</t>
   </si>
   <si>
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>- Danh mục  đơn đặt hàng</t>
+    <t>Quản lí nhân viên</t>
+  </si>
+  <si>
+    <t>Chấm công</t>
+  </si>
+  <si>
+    <t>Quản lí danh mục</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Quản lí kho</t>
+  </si>
+  <si>
+    <t>Quản lí đặt hàng</t>
+  </si>
+  <si>
+    <t>Quản lí hóa đơn</t>
+  </si>
+  <si>
+    <t>Quản lí khách hàng</t>
+  </si>
+  <si>
+    <t>Quản lí hệ thống</t>
+  </si>
+  <si>
+    <t>Máy chấm công bằng vân tay</t>
+  </si>
+  <si>
+    <t>Yêu cầu tương thích</t>
   </si>
 </sst>
 </file>
@@ -516,381 +450,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F5D3CF-0B34-4169-9AE1-207D50D4E913}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
     </row>
